--- a/seminar_3.xlsx
+++ b/seminar_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uc201\Desktop\GB\HW\FinancialMathematics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CFD0F2-DB16-4B0B-92F2-034E6EA849CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA07E0B2-5F5F-4521-A7E1-FA8D884A579C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{EA6B04E0-5A2E-431E-BF37-AFC215A5F138}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -133,19 +133,6 @@
     <t>показатель Шарпа</t>
   </si>
   <si>
-    <r>
-      <t>Задача 3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF2C2D30"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t> В инвестиционном анализе есть т.н. показатель Шарпа, который характеризует эффективность инвестиции в фонд. Он рассчитывается как отношение средней доходности к риску (волатильности). Рассчитайте этот коэффициент для условий задачи 2.</t>
-    </r>
-  </si>
-  <si>
     <t>Ожидаемый
 результат</t>
   </si>
@@ -175,13 +162,32 @@
   </si>
   <si>
     <r>
+      <t>Задача 3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2C2D30"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> В инвестиционном анализе есть т.н. показатель Шарпа, который характеризует эффективность инвестиции в фонд. Он рассчитывается как отношение средней доходности к риску (волатильности). Рассчитайте этот коэффициент для условий задачи 2.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Задача 5.</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF2C2D30"/>
-        <rFont val="Roboto"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
       </rPr>
       <t> Аналитик собрал статистические данные между ценой акции перерабатывающей компании и ценой ресурса, который эта компания перерабатывает:</t>
     </r>
@@ -194,13 +200,13 @@
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ [$₽-419]_-;\-* #,##0\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,17 +272,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF2C2D30"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2C2D30"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -453,34 +448,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2025,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD96B66-399F-4B15-9B44-AF54B68A1622}">
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2071,53 +2064,53 @@
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
@@ -2133,10 +2126,10 @@
     </row>
     <row r="10" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <f>15%*1/36+10%*2/36+5%*3/36+0%*23/36-5%*6/36-10%*(36-1-2-3-23-6)/36</f>
         <v>2.777777777777777E-3</v>
       </c>
@@ -2174,78 +2167,78 @@
     </row>
     <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>0.05</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>-0.02</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>0.12</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <v>-0.04</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>0.11</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="19">
         <v>0.09</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="7"/>
       <c r="K17" s="15"/>
       <c r="L17" s="9"/>
@@ -2255,31 +2248,31 @@
     </row>
     <row r="18" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <f>1+B17</f>
         <v>1.05</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <f t="shared" ref="C18:H18" si="0">1+C17</f>
         <v>0.98</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <f t="shared" si="0"/>
         <v>1.1200000000000001</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <f t="shared" si="0"/>
         <v>1.07</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <f t="shared" si="0"/>
         <v>0.96</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="18">
         <f t="shared" si="0"/>
         <v>1.1100000000000001</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <f t="shared" si="0"/>
         <v>1.0900000000000001</v>
       </c>
@@ -2293,14 +2286,14 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <f>GEOMEAN(B18:H18)-1</f>
         <v>5.2667285863485791E-2</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -2309,11 +2302,11 @@
     </row>
     <row r="20" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -2322,10 +2315,10 @@
     </row>
     <row r="21" spans="1:15" ht="31" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
-      <c r="B21" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="22">
+      <c r="B21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="21">
         <f>FV(B19,5,0,-100000)</f>
         <v>129257.46433998668</v>
       </c>
@@ -2339,64 +2332,64 @@
     </row>
     <row r="22" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
-      <c r="B22" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="B22" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="22">
         <f>B19/STDEVA(B17:H17)</f>
         <v>0.84386686371526343</v>
       </c>
-      <c r="D26" s="24"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -2408,7 +2401,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="24"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -2430,65 +2423,65 @@
     </row>
     <row r="29" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
     </row>
     <row r="31" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
     </row>
     <row r="32" spans="1:15" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
     </row>
     <row r="33" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
     </row>
     <row r="34" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
@@ -2503,8 +2496,8 @@
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:15" ht="31" x14ac:dyDescent="0.35">
-      <c r="B35" s="18" t="s">
-        <v>13</v>
+      <c r="B35" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -2523,34 +2516,34 @@
     </row>
     <row r="36" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="25">
+        <v>13</v>
+      </c>
+      <c r="C36" s="23">
         <v>0.3</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="23">
         <v>0.5</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="23">
         <v>0.2</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="25"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="25"/>
+      <c r="J36" s="23"/>
     </row>
     <row r="37" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="25">
+        <v>14</v>
+      </c>
+      <c r="C37" s="23">
         <v>0.01</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="23">
         <v>0.03</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="23">
         <v>0.1</v>
       </c>
       <c r="F37" s="7"/>
@@ -2573,10 +2566,10 @@
     </row>
     <row r="39" spans="1:15" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
-      <c r="B39" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="25">
+      <c r="B39" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="23">
         <f>(C36*C37)/(C36*C37+D36*D37+E36*E37)</f>
         <v>7.8947368421052627E-2</v>
       </c>
@@ -2614,7 +2607,7 @@
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="7"/>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="7"/>
@@ -2628,31 +2621,31 @@
     </row>
     <row r="43" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="26">
         <v>1</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="26">
         <v>2</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="26">
         <v>3</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="26">
         <v>4</v>
       </c>
-      <c r="G43" s="30">
+      <c r="G43" s="26">
         <v>5</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="26">
         <v>6</v>
       </c>
-      <c r="I43" s="30">
+      <c r="I43" s="26">
         <v>7</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="26">
         <v>8</v>
       </c>
       <c r="K43" s="11">
@@ -2667,37 +2660,37 @@
       <c r="N43" s="11">
         <v>12</v>
       </c>
-      <c r="O43" s="26">
+      <c r="O43" s="24">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="27">
         <v>12.1</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="27">
         <v>15.2</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="27">
         <v>15.3</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="27">
         <v>15.7</v>
       </c>
-      <c r="G44" s="32">
+      <c r="G44" s="27">
         <v>15.2</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="27">
         <v>16.100000000000001</v>
       </c>
-      <c r="I44" s="32">
+      <c r="I44" s="27">
         <v>16.5</v>
       </c>
-      <c r="J44" s="32">
+      <c r="J44" s="27">
         <v>17.100000000000001</v>
       </c>
       <c r="K44" s="10">
@@ -2712,38 +2705,38 @@
       <c r="N44" s="10">
         <v>16.899999999999999</v>
       </c>
-      <c r="O44" s="27">
+      <c r="O44" s="25">
         <f>N45*C49+D49</f>
         <v>16.733602605159945</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="7"/>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="28">
         <v>115</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="28">
         <v>119</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="28">
         <v>121</v>
       </c>
-      <c r="F45" s="34">
+      <c r="F45" s="28">
         <v>130</v>
       </c>
-      <c r="G45" s="34">
+      <c r="G45" s="28">
         <v>131</v>
       </c>
-      <c r="H45" s="34">
+      <c r="H45" s="28">
         <v>150</v>
       </c>
-      <c r="I45" s="34">
+      <c r="I45" s="28">
         <v>155</v>
       </c>
-      <c r="J45" s="34">
+      <c r="J45" s="28">
         <v>172</v>
       </c>
       <c r="K45" s="12">
@@ -2762,7 +2755,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="7"/>
@@ -2790,10 +2783,10 @@
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -2804,14 +2797,14 @@
     </row>
     <row r="49" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
-      <c r="B49" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="36" cm="1">
+      <c r="B49" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="29" cm="1">
         <f t="array" ref="C49:D49">LINEST(D44:N44,C45:M45)</f>
         <v>3.3134827821956758E-2</v>
       </c>
-      <c r="D49" s="37">
+      <c r="D49" s="30">
         <v>11.465164981468821</v>
       </c>
       <c r="E49" s="7"/>
@@ -2823,6 +2816,15 @@
     </row>
     <row r="50" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="7"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
     </row>
     <row r="51" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
